--- a/P0104/09_FICHAS/N2-FP-INFORME.xlsx
+++ b/P0104/09_FICHAS/N2-FP-INFORME.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\09_FICHAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{F6C83024-CCD1-4B8D-B7D7-65EF526B5F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB723D98-E2FE-4528-B69C-F870366A8A7C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="9570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="69">
   <si>
     <t>CODIGO DE PROYECTO</t>
   </si>
@@ -90,13 +90,166 @@
   </si>
   <si>
     <t>PALABRAS CLAVE</t>
+  </si>
+  <si>
+    <t>P0104</t>
+  </si>
+  <si>
+    <t>PR0001</t>
+  </si>
+  <si>
+    <t>24.2.1.1. Diagnostico_PTAP</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.2.Memorias_de_Diagnóstico_y_Diseño/24.2.1. Diagnostico\24.2.1.1. Diagnostico_PTAP.pdf</t>
+  </si>
+  <si>
+    <t>AGUASCOL</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento llamado "24.2.1.1. Diagnostico_PTAP" corresponde al Anexo de DIAGNÓSTICO DE LOS COMPONENTES DE LA PLANTA DE POTABILIZACIÓN CONVENCIONAL DEL MUNICIPIO DE NECHÍ, del proyecto "Construcción del sistema de tratamiento de lodos para la planta de potabilización en la zona urbana del municipio de Nechí, Antioquia". El objetivo del documento es llevar a cabo un diagnóstico integral de los componentes de la planta de tratamiento de agua potable en Nechí, con el fin de identificar deficiencias y proponer soluciones efectivas para mejorar la eficiencia del sistema y gestionar adecuadamente los lodos generados. La metodología del estudio se basa en un análisis descriptivo, para evaluar los principales elementos de la planta, incluyendo el desarenador, floculador, sedimentador y filtro. Cada uno de estos componentes fue inspeccionado detalladamente para entender su funcionamiento y condiciones actuales. Se realizó una evaluación de su desempeño a través de la medición de parámetros operativos, como la turbiedad del agua cruda y la capacidad de tratamiento de cada estructura. El informe también incluye el diagnóstico del manejo de lodos, analizando el bombeo y las técnicas utilizadas para la extracción de estos, así como los problemas asociados, como la dificultad en el manejo del espacio y los riesgos de resuspensión de lodos. Los datos recolectados durante esta evaluación permiten formular recomendaciones específicas para optimizar el sistema y garantizar un tratamiento de agua más efectivo y sostenible. El diagnóstico se complementa con estudios adicionales y planificación financiera para la viabilización del proyecto. </t>
+  </si>
+  <si>
+    <t>INFORME</t>
+  </si>
+  <si>
+    <t>pdf</t>
+  </si>
+  <si>
+    <t>El informe se organiza en secciones que analizan diferentes componentes de la planta: el desarenador, floculador, sedimentador y filtro. Se comienza con una introducción y detalla el propósito del diagnóstico, seguido de descripciones técnicas y diagnósticos para cada parte de la planta. Se incluye además un análisis del manejo de lodos y la evacuación de aguas de lavado. Al final del documento, se enumeran conclusiones y recomendaciones basadas en los hallazgos. Entre los hallazgos más significativos, se identificaron problemas tanto estructurales como operativos en los componentes de la planta. Por ejemplo, el desarenador, originalmente diseñado para operar como un sistema de alta tasa, actualmente funciona como un desarenador convencional debido a la remoción de las placas de asbesto-cemento deterioradas. Esto ha generado un consumo adicional de energía en el bombeo debido a la altura de entrada del agua cruda. En el sedimentador, se observó que el diseño trapezoidal dificulta el manejo y mantenimiento, y se identificaron problemas de ahogamiento en las canaletas efluentes. La planta opera con una única estructura de filtración que limita su capacidad hidráulica, evidenciando que el floculador es el componente que restringe el rendimiento global del sistema. El informe destaca tasas de filtración y los comportamientos hidráulicos de los componentes de la planta. El sedimento y las aguas de lavado generan caudales que son difíciles de manejar con el sistema de bombeo actual. Las tasas de filtración en el filtro son de aproximadamente 120 m³/m²-d, un valor inferior a lo recomendado para optimizar el rendimiento del tratamiento. Durante el proceso de lavado, se aprovechan horas de baja demanda, pero el sistema se enfrenta a sobrecargas cuando se manejan simultáneamente las aguas de lavado y las provenientes del sedimentador. Las conclusiones del documento destacan la necesidad urgente de optimizar el sistema de tratamiento de lodos para mejorar la eficiencia de la planta de potabilización. Se sugiere que el diseño de los componentes debe ser revisado para facilitar el acceso y mantenimiento, así como el mejor manejo de lodos, ya que muchas de las problemáticas observadas están relacionadas con el diseño físico y la capacidad de los tanques aéreos. Además, el diagnóstico sugiere que la planta debería considerar la ampliación del área de filtración y mejorar los sistemas de evacuación para evitar la acumulación de lodos y el riesgo de resuspensión. Por último, se recomienda un análisis financiero y la inclusión de estudios complementarios para la viabilización de las mejoras propuestas, asegurando así un aumento en la calidad del agua tratada y el servicio ofrecido a la comunidad de Nechí.</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento permite conocer las condiciones técnicas de operación de la PTAP de Nechí para el año 2022, con el cual se podrán hacer revisiones de las condiciones actuales y calcular indicadores de mejora del sistema desde el componente técnico de operación. No se realiza diagnóstico desde el punto económico de operación. </t>
+  </si>
+  <si>
+    <t>PTAP, planta de tratamiento de agua potable, Nechi, AguasCol, diagnóstico, sedimentador, consumo, población urbana, demanda de agua</t>
+  </si>
+  <si>
+    <t>PR0002</t>
+  </si>
+  <si>
+    <t>24.5. ESTUDIO DE SUELOS PTAP NECHI (1)</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.5.Estudio_Suelos\24.5. ESTUDIO DE SUELOS PTAP NECHI (1).pdf</t>
+  </si>
+  <si>
+    <t>COLOMBIANA DE LA INGENIERIA Y DE LA ARQUITECTURA SAS</t>
+  </si>
+  <si>
+    <t>El documento llamado "24.5. ESTUDIO DE SUELOS PTAP NECHI (1)" tiene por título"Estudio de suelos para la adición de estructuras en la planta de tratamiento de agua potable en el municipio de Nechi - Antioquia" y corresponde al anexo 24.5 del proyecto "Construcción del sistema de tratamiento de lodos para la planta de potabilización en la zona urbana del municipio de Nechí, Antioquia". El documento tiene como objetivo principal evaluar las características geotécnicas del suelo para garantizar la estabilidad y seguridad de las nuevas estructuras planificadas, que incluyen una estación de bombeo, tanques espesadores y lechos de secado. Se busca determinar la capacidad de carga, los asentamientos y los módulos de reacción del suelo en el área de construcción. La metodología empleada en el estudio incluye una exploración de campo que sigue los lineamientos del Reglamento Colombiano de Construcciones Sismo Resistentes, NSR-10. Se llevaron a cabo perforaciones orientadas a caracterizar el suelo en el sitio donde se apoyarán las nuevas estructuras. Durante la investigación, se realizaron ensayos de laboratorio y campo para obtener un análisis detallado de los parámetros geotécnicos, como la capacidad de carga y los niveles freáticos. Los resultados de las investigaciones permitieron formular recomendaciones sobre el diseño de las cimentaciones, sugiriendo el uso de losas de cimentación continua y considerando aspectos como el empuje hidrostático debido al nivel freático superficial. Este enfoque integral garantiza que el diseño cumpla con las condiciones técnicas, ambientales y económicas necesarias para la funcionalidad y seguridad durante la vida útil de las estructuras.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">En la introducción del documento establece la importancia del estudio geotécnico, señalando que la exploración del terreno se fundamenta en las normativas del Reglamento Colombiano de Construcciones Sismo Resistentes, NSR-10. Se reconoce la necesidad de identificar las características del suelo para determinar la capacidad de carga y los asentamientos esperados durante la vida útil de las estructuras. En la metodología, se detalla el enfoque adoptado para la investigación, que incluyó una revisión exhaustiva del área y la realización de tres perforaciones de 6.0 m de profundidad en localizaciones estratégicas que corresponden a las estructuras proyectadas. Las perforaciones se realizaron para caracterizar el suelo, y los resultados fueron complementados con ensayos de laboratorio para evaluar los parámetros geotécnicos, como la resistencia del suelo y el nivel freático, este último encontrado a profundidades entre 0.65 m y 0.70 m. En la sección de calculos y análisis de resultados, se presentan las conclusiones sobre la capacidad de carga y los asentamientos esperados. Se determinó que la losa de cimentación propuesta debe tener un espesor mínimo de 0.30 m y debe ser colocada a una profundidad de al menos 1.00 m, apoyándose en un material de reemplazo compactado para asegurar la estabilidad. Se estimó que los asentamientos estarían por debajo de 1” (2.54 cm), garantizando así la funcionalidad de las nuevas estructuras a largo plazo. Las conclusiones y recomendaciones destacan la necesidad de cimentar las estructuras mediante una losa continua de concreto reforzado, considerando el diseño especificado para mitigación de presiones hidrostáticas. Se recomienda también la implementación de filtros perimetrales para aliviar el empuje hidrostático y evitar problemas de flotación de las estructuras en condiciones de alta humedad. Las excavaciones deben ser realizadas bajo supervisión adecuada para asegurar que se cumplen las características geotécnicas del sitio, y se sugiere programar el bombeo controlado de aguas freáticas durante la construcción. Finalmente, el informe enfatiza que cualquier variación en las condiciones del terreno durante la construcción debe ser comunicada al ingeniero geotecnista para realizar ajustes necesarios en el diseño. Este enfoque proactivo garantiza la seguridad, la estabilidad y la funcionalidad de las estructuras que se desarrollarán en la planta de tratamiento de agua potable en Nechi. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El documento proporciona información geotécnica para cimentación en la zona de la PTAP de Nechí, como nivel freático, capacidad de carga, resistencia del suelo. </t>
+  </si>
+  <si>
+    <t>PTAP, planta de tratamiento de agua potable, Nechi, AguasCol, diagnóstico, sedimentador, consumo, población urbana, geotecnia, capacidad portante, nivel freático, presión hidrostática</t>
+  </si>
+  <si>
+    <t>PR0003</t>
+  </si>
+  <si>
+    <t>24.3. Informe_General_REV2_221227</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.3.Informe_General/24.3. Informe_General_REV2_221227.pdf</t>
+  </si>
+  <si>
+    <t>El documento denominado "24.3. Informe_General_REV2_221227" es un informe técnico de AGUASCOL S.A E.S.P. detalla el diseño de un sistema de tratamiento de lodos para la planta de potabilización de agua de Nechí, Antioquia, Colombia.  El objetivo es cumplir con la Resolución 0330 de 2017 para la descarga de aguas residuales al Río Cauca, garantizando la prórroga de la concesión de agua. Tras un diagnóstico del acueducto y alcantarillado (cobertura, dotación, continuidad), se proyecta la población y demanda de agua hasta 2049 (usando el método geométrico). Se evalúan dos alternativas de tratamiento de lodos: lechos de secado y filtro prensa, seleccionándose los lechos de secado por su eficiencia y menor costo. El informe analiza la optimización de tanques existentes e incluye consideraciones ambientales.  Se citan normas y resoluciones relevantes (RAS, Resolución 0330 de 2017).  La información sirve para la planificación y gestión de recursos hídricos y la infraestructura del municipio de Nechí.</t>
+  </si>
+  <si>
+    <t>El informe justifica la necesidad de un nuevo sistema de tratamiento de lodos para la planta de potabilización de agua en Nechí debido a las deficiencias del sistema actual y a la necesidad de cumplir con las regulaciones ambientales para la descarga de aguas residuales.  Se evalúan dos alternativas (lechos de secado y filtro prensa), seleccionándose finalmente los lechos de secado por ser la opción más eficiente y económica.  El informe presenta un diseño detallado del sistema de tratamiento, incluyendo el dimensionamiento de las estructuras y un presupuesto completo.</t>
+  </si>
+  <si>
+    <t>El informe técnico presenta un estudio completo y detallado para el diseño de un sistema de tratamiento de lodos para la planta de potabilización de agua en Nechí, Antioquia.  El enfoque es pragmático, justificando las decisiones de diseño con base en análisis técnicos, económicos y ambientales.  Sin embargo, la ausencia de información sobre la disponibilidad de datos históricos para la validación del modelo y la falta de detalles sobre los métodos de interpolación usados para la proyección de la demanda de agua son limitaciones que deben considerarse. La claridad de la presentación y la inclusión de planos y presupuestos lo hacen un documento útil para la toma de decisiones, aunque se beneficiaría de mayor información sobre las incertidumbres y las suposiciones realizadas durante el proceso de diseño</t>
+  </si>
+  <si>
+    <t>Tratamiento de lodos, planta de potabilización, Nechí, Antioquia, acueducto, alcantarillado, lechos de secado, diseño de ingeniería, gestión del agua,  resolución 0330 de 2017,  evaluación ambiental,  presupuesto</t>
+  </si>
+  <si>
+    <t>PR0004</t>
+  </si>
+  <si>
+    <t>24.4. Manual de operación tratamiento_lodos</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.4.Manual_de_Op_y_Mtto_Planta/24.4. Manual de operación tratamiento_lodos.pdf</t>
+  </si>
+  <si>
+    <t>El documento denominado "24.4. Manual de operación tratamiento_lodos" es un manual de operación y mantenimiento del sistema de tratamiento de lodos de la planta potabilizadora de agua potable del municipio de Nechí, Antioquia, Colombia, elaborado por AGUASCOL en enero de 2023.  Se centra en la operación y el mantenimiento de las estructuras proyectadas para el tratamiento de lodos, incluyendo los sistemas de bombeo y dosificación.</t>
+  </si>
+  <si>
+    <t>El manual describe detalladamente la operación del sistema de tratamiento de lodos, incluyendo diagramas y fotografías de la localización de las válvulas, bombas, y tanques.  Se describen los procedimientos para la operación de las bombas en los tanques 1, 2 y 3, así como para la dosificación de polímeros en el tanque 3.  Se incluye el cálculo de los volúmenes de agua necesarios para el lavado de los filtros y el dimensionamiento de las estructuras de tratamiento de lodos (tanques espesadores, lechos de secado)</t>
+  </si>
+  <si>
+    <t>El manual proporciona instrucciones paso a paso para la operación del sistema de tratamiento de lodos, incluyendo el uso de válvulas de purga y bombeo. Describe la operación de las bombas y el sistema de dosificación de polímeros, y detalla el dimensionamiento de las estructuras, especificando volúmenes y tiempos de operación. La finalidad es asegurar el correcto funcionamiento y mantenimiento del sistema</t>
+  </si>
+  <si>
+    <t>Manual de operación y mantenimiento, tratamiento de lodos, planta potabilizadora, Nechí, Antioquia,  bombeo, dosificación, tanques espesadores, lechos de secado, válvulas,  procedimientos de operación, mantenimiento preventivo.</t>
+  </si>
+  <si>
+    <t>PR0005</t>
+  </si>
+  <si>
+    <t>INFORME TOPOGRAFIA PLANTA DE TRATAMIENTO DE AGUA POTABLE NECH</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.6.Estudio_Topográfico/24.5.1.Informe/INFORME TOPOGRAFIA PLANTA DE TRATAMIENTO DE AGUA POTABLE NECH.pdf</t>
+  </si>
+  <si>
+    <t>El documento denominado "INFORME TOPOGRAFIA PLANTA DE TRATAMIENTO DE AGUA POTABLE NECH"  detalla un levantamiento topográfico altimétrico para la planta de tratamiento de agua potable de Nechí, Antioquia, realizado por Javier Enrique Trejo Vidal para Aguascol S.A E.S.P.  Utilizando una estación total Topcon GPT-3207N y el método de radiación, se obtuvieron datos precisos del terreno (coordenadas Gauss-Kruger, elevaciones, pendientes, áreas) para el diseño de obras.  El informe incluye la metodología, la cartera de coordenadas, registro fotográfico, certificados de calibración, y un memorial de responsabilidad.  Los entregables son planos digitales (DWG y PDF) y un archivo con datos crudos. Esta información topográfica es fundamental para el diseño preciso de la infraestructura y la modelación hidrológica en Nechí.</t>
+  </si>
+  <si>
+    <t>El estudio topográfico tuvo como objetivo obtener datos precisos del terreno para la revisión y el diseño de obras en la planta de tratamiento de agua potable. La metodología empleó una estación total Topcon GPT-3207N amarrada al sistema Magna-Sirgas a través de puntos materializados en campo, utilizando el método de radiación.  El informe incluye la cartera de coordenadas, el registro fotográfico del trabajo de campo, los certificados de calibración de los equipos topográficos, y un memorial de responsabilidad.  Los entregables incluyen planos en formato dwg y pdf, una cartera de coordenadas en formato Excel y texto, y el registro fotográfico.</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Excel que contiene el cierre de poligonales.  Además, el informe incluye fotografías del trabajo de campo (imágenes 001 a 009) y los certificados de calibración de los equipos</t>
+  </si>
+  <si>
+    <t>El documento es un informe de un estudio topográfico altimétrico realizado para la planta de tratamiento de agua potable de Nechí, Antioquia, Colombia, por Javier Enrique Trejo Vidal en diciembre de 2020 para Aguascol S.A E.S.P.</t>
+  </si>
+  <si>
+    <t>Estudio topográfico, altimétrico, planta de tratamiento de agua potable, Nechí, Antioquia, Magna-Sirgas, estación total, Topcon GPT-3207N, coordenadas geográficas, planos, cartografía.</t>
+  </si>
+  <si>
+    <t>PR0006</t>
+  </si>
+  <si>
+    <t>24.8. Especificaciones_tecnicas_REV2</t>
+  </si>
+  <si>
+    <t>s3://foa-prod-comp-fenomenologico-bucket/foa_puj_curada/P0104/02_PRODUCTOS/24.EstyDis/24.8.Especificaciones_Tecnicas/24.8. Especificaciones_tecnicas_REV2.pdf</t>
+  </si>
+  <si>
+    <t>El documento detalla las especificaciones técnicas para cada ítem de la obra, incluyendo la localización, los materiales, los procedimientos de ejecución, las normas de ensayo, la medida y el pago.  Cubre una amplia gama de ítems, desde la demolición de estructuras hasta la instalación de equipos como bombas, válvulas, y sistemas de dosificación de polímeros. Se especifican normas y reglamentos técnicos a seguir (ej: NSR-10, ICONTEC, ASTM, INVIAS, EPM) y se establecen criterios de control de calidad y pruebas.</t>
+  </si>
+  <si>
+    <t>Se trata de un documento de diseño constructivo que define las especificaciones para cada uno de los ítems de construcción de un sistema de tratamiento de lodos.  Incluye información sobre materiales, métodos constructivos, normas a seguir, control de calidad y procedimientos de medición y pago.  El documento busca asegurar la calidad y la correcta ejecución de la obra.</t>
+  </si>
+  <si>
+    <t>El documento está bien organizado y presenta la información de forma clara y detallada, aunque extensa.  La numeración y organización jerárquica de los ítems facilitan la consulta.  Sin embargo, la falta de información sobre la ubicación geográfica exacta de las obras, la fecha de construcción, y el contexto ambiental específico de la zona podrían ser limitaciones en la aplicación práctica del documento. La frecuente referencia a la necesidad de consultar otras normas técnicas implica la necesidad de tener acceso a esos documentos complementarios.</t>
+  </si>
+  <si>
+    <t>Especificaciones técnicas, tratamiento de lodos, planta de potabilización, Nechí, Antioquia, construcción, diseño constructivo, materiales, métodos constructivos, control de calidad, normas técnicas, ICONTEC, ASTM, NSR-10, INVIAS, EPM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -118,8 +271,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,8 +291,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -182,11 +347,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -195,6 +436,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,6 +923,13 @@
       </border>
     </dxf>
     <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -683,13 +950,6 @@
         <patternFill patternType="none"/>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -739,7 +999,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="20" headerRowBorderDxfId="21" tableBorderDxfId="19" totalsRowBorderDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{071F1EEE-F40A-4A05-BF36-E5D4A7F1ECBC}" name="Tabla2" displayName="Tabla2" ref="A1:R15" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21" headerRowBorderDxfId="19" tableBorderDxfId="20" totalsRowBorderDxfId="18">
   <tableColumns count="18">
     <tableColumn id="1" xr3:uid="{0EB386ED-25C4-4E98-8607-7E1DEB7DDB25}" name="CODIGO DE PROYECTO" dataDxfId="17"/>
     <tableColumn id="2" xr3:uid="{A2B4539E-FF4A-4F1D-84B8-31E807539DC0}" name="CODIGO DE PRODUCTO" dataDxfId="16"/>
@@ -1030,38 +1290,38 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.28515625" customWidth="1"/>
-    <col min="4" max="4" width="59.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
     <col min="6" max="8" width="9.5703125" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" customWidth="1"/>
     <col min="11" max="11" width="34" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
     <col min="13" max="13" width="20" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" customWidth="1"/>
     <col min="15" max="15" width="9.7109375" customWidth="1"/>
-    <col min="16" max="16" width="15.85546875" customWidth="1"/>
+    <col min="16" max="17" width="15.85546875" customWidth="1"/>
     <col min="18" max="18" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1076,22 +1336,22 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="2" t="s">
@@ -1107,130 +1367,346 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="5"/>
+    <row r="2" spans="1:18" s="8" customFormat="1">
+      <c r="A2" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2022</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="5"/>
+    <row r="3" spans="1:18" s="8" customFormat="1">
+      <c r="A3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2020</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="5"/>
+    <row r="4" spans="1:18" s="18" customFormat="1">
+      <c r="A4" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="16">
+        <v>2022</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" s="15" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="5"/>
+    <row r="5" spans="1:18" s="18" customFormat="1">
+      <c r="A5" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="16">
+        <v>2023</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M5" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="O5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="15" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
-      <c r="P6" s="4"/>
-      <c r="Q6" s="4"/>
-      <c r="R6" s="5"/>
+    <row r="6" spans="1:18" s="18" customFormat="1">
+      <c r="A6" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2020</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="15" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
-      <c r="P7" s="4"/>
-      <c r="Q7" s="4"/>
-      <c r="R7" s="5"/>
+    <row r="7" spans="1:18" s="18" customFormat="1">
+      <c r="A7" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="16">
+        <v>2023</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="O7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="P7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="3"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1247,7 +1723,7 @@
       <c r="Q8" s="4"/>
       <c r="R8" s="5"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -1267,7 +1743,7 @@
       <c r="Q9" s="4"/>
       <c r="R9" s="5"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -1287,7 +1763,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="5"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -1307,7 +1783,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="5"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -1327,7 +1803,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -1347,7 +1823,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="A14" s="3"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -1367,7 +1843,7 @@
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -1387,10 +1863,10 @@
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="R16" s="1"/>
     </row>
-    <row r="17" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="18:18">
       <c r="R17" s="1"/>
     </row>
   </sheetData>
@@ -1556,27 +2032,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{02021F42-7878-49FA-AE56-8BD3BCC0EFBB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3277f09b-73d6-4795-b7e6-f63d7d60cc69"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6CD29E99-3B6E-46DF-8BF3-E73BB64F02C9}"/>
 </file>